--- a/Summer.xlsx
+++ b/Summer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoraguiardesouzapenha/Desktop/Ketones/Birds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BE1C5B18-6B0A-EE4D-BB59-229919D33BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB68B78-060B-0C4E-AF38-29121C614113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{6663010C-9E33-ED42-8FD9-C07232C8C191}"/>
   </bookViews>
@@ -692,8 +692,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1072,7 +1073,7 @@
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1152,7 +1153,7 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>44050</v>
       </c>
       <c r="D2" t="s">
@@ -1220,7 +1221,7 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>44050</v>
       </c>
       <c r="D3" t="s">
@@ -1288,7 +1289,7 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>44050</v>
       </c>
       <c r="D4" t="s">
@@ -1356,7 +1357,7 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>44050</v>
       </c>
       <c r="D5" t="s">
@@ -1424,7 +1425,7 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>44050</v>
       </c>
       <c r="D6" t="s">
@@ -1492,7 +1493,7 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>44050</v>
       </c>
       <c r="D7" t="s">
@@ -1560,7 +1561,7 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>44050</v>
       </c>
       <c r="D8" t="s">
@@ -1628,7 +1629,7 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>44050</v>
       </c>
       <c r="D9" t="s">
@@ -1696,7 +1697,7 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>44047</v>
       </c>
       <c r="D10" t="s">
@@ -1764,7 +1765,7 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>44047</v>
       </c>
       <c r="D11" t="s">
@@ -1832,7 +1833,7 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>44047</v>
       </c>
       <c r="D12" t="s">
@@ -1900,7 +1901,7 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>44047</v>
       </c>
       <c r="D13" t="s">
@@ -1968,7 +1969,7 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>44047</v>
       </c>
       <c r="D14" t="s">
@@ -2036,7 +2037,7 @@
       <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>44048</v>
       </c>
       <c r="D15" t="s">
@@ -2104,7 +2105,7 @@
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>44048</v>
       </c>
       <c r="D16" t="s">
@@ -2172,7 +2173,7 @@
       <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>44048</v>
       </c>
       <c r="D17" t="s">
@@ -2240,7 +2241,7 @@
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>44048</v>
       </c>
       <c r="D18" t="s">
@@ -2308,7 +2309,7 @@
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>44048</v>
       </c>
       <c r="D19" t="s">
@@ -2376,7 +2377,7 @@
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>44048</v>
       </c>
       <c r="D20" t="s">
@@ -2444,7 +2445,7 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>44048</v>
       </c>
       <c r="D21" t="s">
@@ -2512,7 +2513,7 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>44048</v>
       </c>
       <c r="D22" t="s">
@@ -2580,7 +2581,7 @@
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>44048</v>
       </c>
       <c r="D23" t="s">
@@ -2648,7 +2649,7 @@
       <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>44048</v>
       </c>
       <c r="D24" t="s">
@@ -2716,7 +2717,7 @@
       <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>44048</v>
       </c>
       <c r="D25" t="s">
@@ -2784,7 +2785,7 @@
       <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>44048</v>
       </c>
       <c r="D26" t="s">
@@ -2852,7 +2853,7 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>44048</v>
       </c>
       <c r="D27" t="s">
@@ -2920,7 +2921,7 @@
       <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>44048</v>
       </c>
       <c r="D28" t="s">
@@ -2988,7 +2989,7 @@
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>44048</v>
       </c>
       <c r="D29" t="s">
@@ -3056,7 +3057,7 @@
       <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>44049</v>
       </c>
       <c r="D30" t="s">
@@ -3124,7 +3125,7 @@
       <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>44049</v>
       </c>
       <c r="D31" t="s">
@@ -3192,7 +3193,7 @@
       <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>44049</v>
       </c>
       <c r="D32" t="s">
@@ -3260,7 +3261,7 @@
       <c r="B33" t="s">
         <v>47</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>44049</v>
       </c>
       <c r="D33" t="s">
@@ -3328,7 +3329,7 @@
       <c r="B34" t="s">
         <v>47</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>44049</v>
       </c>
       <c r="D34" t="s">
@@ -3396,7 +3397,7 @@
       <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>44049</v>
       </c>
       <c r="D35" t="s">
@@ -3464,7 +3465,7 @@
       <c r="B36" t="s">
         <v>47</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>44049</v>
       </c>
       <c r="D36" t="s">
@@ -3532,7 +3533,7 @@
       <c r="B37" t="s">
         <v>22</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>44050</v>
       </c>
       <c r="D37" t="s">
@@ -3600,7 +3601,7 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>44046</v>
       </c>
       <c r="D38" t="s">
@@ -3668,7 +3669,7 @@
       <c r="B39" t="s">
         <v>47</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>44046</v>
       </c>
       <c r="D39" t="s">
@@ -3736,7 +3737,7 @@
       <c r="B40" t="s">
         <v>47</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>44046</v>
       </c>
       <c r="D40" t="s">
@@ -3804,7 +3805,7 @@
       <c r="B41" t="s">
         <v>47</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>44046</v>
       </c>
       <c r="D41" t="s">
@@ -3872,7 +3873,7 @@
       <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>44046</v>
       </c>
       <c r="D42" t="s">
@@ -3940,7 +3941,7 @@
       <c r="B43" t="s">
         <v>47</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>44046</v>
       </c>
       <c r="D43" t="s">
@@ -4008,7 +4009,7 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>44046</v>
       </c>
       <c r="D44" t="s">
